--- a/trabajo/resumen_preguntas.xlsx
+++ b/trabajo/resumen_preguntas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAI\adalab\proyectos\varios\p2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAI\adalab\proyectos\promo-d-da-modulo2-proyecto-equipo3-Maitane-Elisa-Paula-Paloma\trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF1977-E204-4A27-8A82-6D712AE02DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0432A5B-7012-420F-A552-EE8A312BFDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="105" windowWidth="14250" windowHeight="15435" xr2:uid="{2B794563-F8CF-45DD-9CFD-B6E373586F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2B794563-F8CF-45DD-9CFD-B6E373586F80}"/>
   </bookViews>
   <sheets>
     <sheet name="cribado" sheetId="2" r:id="rId1"/>
@@ -1809,6 +1809,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,21 +1833,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,6 +1841,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB417C68-7DF8-4712-8A0B-E906B223850B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,14 +2178,14 @@
       <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="18"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2193,20 +2193,20 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2220,7 +2220,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2238,7 +2238,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2256,7 +2256,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2274,7 +2274,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2292,7 +2292,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2310,7 +2310,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2328,7 +2328,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2346,7 +2346,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2364,7 +2364,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2382,7 +2382,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2400,7 +2400,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2413,7 +2413,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2426,7 +2426,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2439,7 +2439,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2454,7 +2454,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2472,7 +2472,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2490,7 +2490,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2508,7 +2508,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2521,7 +2521,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2534,7 +2534,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2547,7 +2547,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2560,7 +2560,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2573,7 +2573,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2586,7 +2586,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2601,7 +2601,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2622,7 +2622,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2640,7 +2640,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2658,7 +2658,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2679,7 +2679,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="9" t="str">
         <f>preguntas_encuesta!A44</f>
         <v>q27-b</v>
@@ -2700,7 +2700,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2718,7 +2718,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2748,7 +2748,7 @@
         <f>preguntas_encuesta!A39</f>
         <v>q38-a</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="9" t="str">
         <f>preguntas_encuesta!A47</f>
         <v>q31-b</v>
@@ -2778,7 +2778,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="9" t="str">
         <f>preguntas_encuesta!A45</f>
         <v>q29-b</v>
@@ -2799,7 +2799,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="9" t="str">
         <f>preguntas_encuesta!A46</f>
         <v>q30-b</v>
@@ -2823,7 +2823,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="9" t="str">
         <f>preguntas_encuesta!A48</f>
         <v>q32-b</v>
@@ -2833,7 +2833,7 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B38" s="9" t="str">
@@ -2847,7 +2847,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="9" t="str">
         <f>preguntas_encuesta!A49</f>
         <v>q34-b</v>
@@ -2868,7 +2868,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2886,7 +2886,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2904,26 +2904,26 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -3109,18 +3109,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956940F-C038-4FDB-B575-476FEE778ABA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="4" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -3135,46 +3134,46 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>124</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>141</v>
       </c>
@@ -3689,70 +3688,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:B52" xr:uid="{4956940F-C038-4FDB-B575-476FEE778ABA}">
-    <filterColumn colId="1">
-      <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="Do you use any automated machine learning tools (or partial AutoML tools) on a regular basis?_x000a_(Select all that apply)"/>
-            <x14:filter val="Do you use any of the following cloud computing products on a regular basis? (Select all that apply)_x000a__x000a_4 Question 29-A (which specific AWS/Azure/GCP products) was only asked to respondents that selected_x000a_the relevant answer choices for Question 27-A (which of the following companies)."/>
-            <x14:filter val="Do you use any of the following data storage products on a regular basis? (Select all that apply)_x000a__x000a_5 Question 30-A (which specific AWS/Azure/GCP products) was only asked to respondents that selected_x000a_the relevant answer choices for Question 27-A (which of the following companies)."/>
-            <x14:filter val="Do you use any of the following managed machine learning products on a regular basis? (Select all_x000a_that apply)"/>
-            <x14:filter val="Do you use any tools to help manage machine learning experiments? (Select all that apply)"/>
-            <x14:filter val="In the next 2 years, do you hope to become more familiar with any of these managed machine_x000a_learning products? (Select all that apply)_x000a_9 Non-professionals received questions with an alternate phrasing (questions for non-professionals asked_x000a_what tools they hope to become familiar with in the next 2 years instead of asking what tools they use on_x000a_a regular basis). Non-professionals were defined as students, unemployed, and respondents that have_x000a_never spent any money in the cloud."/>
-            <x14:filter val="In the next 2 years, do you hope to become more familiar with any of these specific cloud computing_x000a_products? (Select all that apply)_x000a_9 Non-professionals received questions with an alternate phrasing (questions for non-professionals asked_x000a_what tools they hope to become familiar with in the next 2 years instead of asking what tools they use on_x000a_a regular basis). Non-professionals were defined as students, unemployed, and respondents that have_x000a_never spent any money in the cloud."/>
-            <x14:filter val="In the next 2 years, do you hope to become more familiar with any of these specific data storage_x000a_products? (Select all that apply)_x000a_9 Non-professionals received questions with an alternate phrasing (questions for non-professionals asked_x000a_what tools they hope to become familiar with in the next 2 years instead of asking what tools they use on_x000a_a regular basis). Non-professionals were defined as students, unemployed, and respondents that have_x000a_never spent any money in the cloud."/>
-            <x14:filter val="In the next 2 years, do you hope to become more familiar with any of these tools for managing ML_x000a_experiments? (Select all that apply)"/>
-            <x14:filter val="On which platforms have you begun or completed data science courses? (Select all that apply)"/>
-            <x14:filter val="Select any activities that make up an important part of your role at work: (Select all that apply)"/>
-            <x14:filter val="What data visualization libraries or tools do you use on a regular basis? (Select all that apply)"/>
-            <x14:filter val="What programming languages do you use on a regular basis? (Select all that apply)"/>
-            <x14:filter val="Where do you publicly share or deploy your data analysis or machine learning applications? (Select_x000a_all that apply)"/>
-            <x14:filter val="Which categories of automated machine learning tools (or partial AutoML tools) do you hope to_x000a_become more familiar with in the next 2 years? (Select all that apply)"/>
-            <x14:filter val="Which categories of computer vision methods do you use on a regular basis? (Select all that apply)1_x000a__x000a_1 Question 18 (which specific ML methods) was only asked to respondents that selected the relevant_x000a_answer choices for Question 17 (which categories of algorithms)."/>
-            <x14:filter val="Which of the following automated machine learning tools (or partial AutoML tools) do you use on a_x000a_regular basis? (Select all that apply)8_x000a__x000a_8 Question 37-A (which specific product) was only asked to respondents that answered affirmatively to_x000a_Question 36-A (which of the following categories of products)."/>
-            <x14:filter val="Which of the following big data products (relational databases, data warehouses, data lakes, or_x000a_similar) do you hope to become more familiar with in the next 2 years? (Select all that apply)"/>
-            <x14:filter val="Which of the following big data products (relational databases, data warehouses, data lakes, or_x000a_similar) do you use on a regular basis? (Select all that apply)"/>
-            <x14:filter val="Which of the following business intelligence tools do you hope to become more familiar with in the_x000a_next 2 years? (Select all that apply)"/>
-            <x14:filter val="Which of the following business intelligence tools do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <x14:filter val="Which of the following cloud computing platforms do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <x14:filter val="Which of the following hosted notebook products do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <x14:filter val="Which of the following integrated development environments (IDE's) do you use on a regular basis?_x000a_(Select all that apply)"/>
-            <x14:filter val="Which of the following machine learning frameworks do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <x14:filter val="Which of the following ML algorithms do you use on a regular basis? (Select all that apply):"/>
-            <x14:filter val="Which of the following natural language processing (NLP) methods do you use on a regular basis?_x000a_(Select all that apply)2_x000a__x000a_2 Question 19 (which specific ML methods) was only asked to respondents that selected the relevant_x000a_answer choices for Question 17 (which categories of algorithms)."/>
-            <x14:filter val="Which specific automated machine learning tools (or partial AutoML tools) do you hope to become_x000a_more familiar with in the next 2 years? (Select all that apply)"/>
-            <x14:filter val="Which types of specialized hardware do you use on a regular basis? (Select all that apply)"/>
-            <x14:filter val="Who/what are your favorite media sources that report on data science topics? (Select all that apply)"/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="Do you use any automated machine learning tools (or partial AutoML tools) on a regular basis?_x000a_(Select all that apply)"/>
-            <filter val="Do you use any of the following managed machine learning products on a regular basis? (Select all_x000a_that apply)"/>
-            <filter val="Do you use any tools to help manage machine learning experiments? (Select all that apply)"/>
-            <filter val="In the next 2 years, do you hope to become more familiar with any of these tools for managing ML_x000a_experiments? (Select all that apply)"/>
-            <filter val="On which platforms have you begun or completed data science courses? (Select all that apply)"/>
-            <filter val="Select any activities that make up an important part of your role at work: (Select all that apply)"/>
-            <filter val="What data visualization libraries or tools do you use on a regular basis? (Select all that apply)"/>
-            <filter val="What programming languages do you use on a regular basis? (Select all that apply)"/>
-            <filter val="Where do you publicly share or deploy your data analysis or machine learning applications? (Select_x000a_all that apply)"/>
-            <filter val="Which categories of automated machine learning tools (or partial AutoML tools) do you hope to_x000a_become more familiar with in the next 2 years? (Select all that apply)"/>
-            <filter val="Which of the following big data products (relational databases, data warehouses, data lakes, or_x000a_similar) do you hope to become more familiar with in the next 2 years? (Select all that apply)"/>
-            <filter val="Which of the following big data products (relational databases, data warehouses, data lakes, or_x000a_similar) do you use on a regular basis? (Select all that apply)"/>
-            <filter val="Which of the following business intelligence tools do you hope to become more familiar with in the_x000a_next 2 years? (Select all that apply)"/>
-            <filter val="Which of the following business intelligence tools do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <filter val="Which of the following cloud computing platforms do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <filter val="Which of the following hosted notebook products do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <filter val="Which of the following integrated development environments (IDE's) do you use on a regular basis?_x000a_(Select all that apply)"/>
-            <filter val="Which of the following machine learning frameworks do you use on a regular basis? (Select all that_x000a_apply)"/>
-            <filter val="Which of the following ML algorithms do you use on a regular basis? (Select all that apply):"/>
-            <filter val="Which specific automated machine learning tools (or partial AutoML tools) do you hope to become_x000a_more familiar with in the next 2 years? (Select all that apply)"/>
-            <filter val="Which types of specialized hardware do you use on a regular basis? (Select all that apply)"/>
-            <filter val="Who/what are your favorite media sources that report on data science topics? (Select all that apply)"/>
-          </mc:Fallback>
-        </mc:AlternateContent>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B52" xr:uid="{4956940F-C038-4FDB-B575-476FEE778ABA}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/trabajo/resumen_preguntas.xlsx
+++ b/trabajo/resumen_preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAI\adalab\proyectos\promo-d-da-modulo2-proyecto-equipo3-Maitane-Elisa-Paula-Paloma\trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0432A5B-7012-420F-A552-EE8A312BFDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BA1F5-FBB6-4FA6-8585-6A73B46E895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2B794563-F8CF-45DD-9CFD-B6E373586F80}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cribado!$A$1:$A$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">preguntas_encuesta!$A$1:$B$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">preguntas_encuesta!$A$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2162,7 +2162,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +3112,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,7 +3688,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B52" xr:uid="{4956940F-C038-4FDB-B575-476FEE778ABA}"/>
+  <autoFilter ref="A1:C52" xr:uid="{4956940F-C038-4FDB-B575-476FEE778ABA}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
